--- a/data/trans_dic/P23_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios</t>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,4%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,7 +705,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,52 +715,82 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,12%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>10,4%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>7,09%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>11,14%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,23%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,68%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>10,78%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,59</t>
+          <t>2,51; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,61</t>
+          <t>2,54; 5,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,57</t>
+          <t>3,71; 7,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,18; 13,16</t>
+          <t>4,93; 9,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,29</t>
+          <t>8,21; 12,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,0; 7,28</t>
+          <t>9,61; 15,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,19</t>
+          <t>5,12; 9,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,96</t>
+          <t>3,99; 7,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,31</t>
+          <t>5,43; 9,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,99</t>
+          <t>7,86; 13,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,87</t>
+          <t>8,94; 13,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,26; 12,61</t>
+          <t>8,0; 12,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 7,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 5,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 7,63</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 11,0</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 12,71</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 13,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,61%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>7,72%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,57</t>
+          <t>4,14; 10,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,85</t>
+          <t>2,24; 6,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,49</t>
+          <t>2,68; 6,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 11,54</t>
+          <t>4,12; 9,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,56</t>
+          <t>4,53; 12,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,11</t>
+          <t>11,27; 21,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,6</t>
+          <t>4,41; 10,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 12,4</t>
+          <t>4,36; 8,17</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,21</t>
+          <t>3,91; 7,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,46</t>
+          <t>6,29; 11,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,56</t>
+          <t>4,59; 12,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,89</t>
+          <t>6,48; 14,48</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,81; 8,75</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 6,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,77; 6,21</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 9,99</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 10,88</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>9,79; 16,07</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,39%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>5,87%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,86</t>
+          <t>2,26; 11,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,3; 22,55</t>
+          <t>4,62; 22,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 10,36</t>
+          <t>1,35; 9,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>4,18; 36,3</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 11,07</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 10,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,83</t>
+          <t>3,18; 10,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>3,77; 11,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 12,57</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 15,98</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 8,85</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 14,15</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 9,13</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,61; 9,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 16,12</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 9,56</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 23,44</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>9,73%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,02%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>5,71%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,57%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
         <is>
           <t>10,08%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,89</t>
+          <t>3,94; 6,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,32</t>
+          <t>3,39; 6,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,11</t>
+          <t>3,75; 6,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,9</t>
+          <t>5,66; 10,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,21</t>
+          <t>8,05; 12,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,15</t>
+          <t>10,8; 15,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 8,06</t>
+          <t>5,68; 8,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,6</t>
+          <t>4,72; 7,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,98</t>
+          <t>5,51; 8,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,28</t>
+          <t>8,02; 11,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 6,6</t>
+          <t>8,6; 12,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 11,58</t>
+          <t>8,28; 11,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 7,26</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 6,29</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 6,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 10,34</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 11,6</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>10,05; 13,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene menos o mucha menos posibilidad de la que desea de hablar con alguien de sus problemas en el trabajo y/o estudios (tasa de respuesta: 99,4%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>67549</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62702</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>85683</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>115400</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23380</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>27497</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126167</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96376</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>129104</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>183313</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26338</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>23256</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>193715</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>159078</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>214787</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>298713</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>49718</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>50752</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40911; 95694</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>41061; 90175</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>59941; 121077</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>79958; 159805</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18452; 28653</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21685; 34760</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>91282; 164645</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>70782; 128074</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97991; 163208</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>139028; 234923</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21149; 32190</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18851; 28344</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>150254; 242711</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>124126; 200994</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>175019; 260897</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>242341; 372663</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>42467; 58648</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>44189; 60009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>82853</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52376</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>57428</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87088</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5432</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11122</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>92645</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>79988</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>77356</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>118047</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5104</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>6495</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>175499</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>132364</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>134784</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>205136</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>10536</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>17617</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>55732; 143453</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30463; 92503</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36663; 84802</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56398; 136382</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3235; 8992</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8204; 15368</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>61147; 142041</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58496; 109571</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53267; 104555</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>84575; 158685</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2993; 7886</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4237; 9466</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>131578; 239195</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100141; 175999</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>102997; 169548</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>159026; 271226</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>7469; 14859</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>13523; 22199</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24326</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>42088</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17519</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>50495</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>25651</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27811</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30979</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>38847</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>49977</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>69899</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>48499</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>89342</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9375; 47542</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19029; 93862</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5663; 41257</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17014; 147940</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12869; 43923</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15101; 45991</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16945; 51128</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22646; 65351</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>29626; 75991</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>43003; 130993</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>28121; 78964</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>51067; 191398</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>174729</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>157166</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>252983</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28811</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>38619</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>244463</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>204175</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>237440</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>340208</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31442</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29751</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>419191</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>361341</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>398070</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>593191</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>60254</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>68369</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>133756; 232346</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>114781; 224207</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>127483; 212118</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>192143; 352568</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>23859; 35699</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>32231; 46358</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>202830; 312677</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>166120; 248812</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>197081; 289015</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>282698; 410765</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25928; 38952</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24915; 35322</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>352728; 505835</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>301845; 434100</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>342443; 467826</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>510623; 715241</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>51556; 69323</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>60272; 78328</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
